--- a/WindowsFormsApp/WindowsFormsApp/CourseAssignTemp.xlsx
+++ b/WindowsFormsApp/WindowsFormsApp/CourseAssignTemp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -26,1015 +26,985 @@
     <t>SlotTypeID</t>
   </si>
   <si>
+    <t>CA134</t>
+  </si>
+  <si>
+    <t>AnNDH2</t>
+  </si>
+  <si>
+    <t>AIL302m_AI1602</t>
+  </si>
+  <si>
+    <t>ST11</t>
+  </si>
+  <si>
+    <t>CA135</t>
+  </si>
+  <si>
+    <t>AIL302m_AI1603</t>
+  </si>
+  <si>
+    <t>ST12</t>
+  </si>
+  <si>
+    <t>CA46</t>
+  </si>
+  <si>
+    <t>AIP391_AI1602</t>
+  </si>
+  <si>
+    <t>ST13</t>
+  </si>
+  <si>
+    <t>CA47</t>
+  </si>
+  <si>
+    <t>AIP391_AI1603</t>
+  </si>
+  <si>
+    <t>ST14</t>
+  </si>
+  <si>
+    <t>CA96</t>
+  </si>
+  <si>
+    <t>ESS301_SE1507</t>
+  </si>
+  <si>
+    <t>ST32</t>
+  </si>
+  <si>
+    <t>CA60</t>
+  </si>
+  <si>
+    <t>HoaDNT</t>
+  </si>
+  <si>
+    <t>CSI104_SE1704</t>
+  </si>
+  <si>
+    <t>CA61</t>
+  </si>
+  <si>
+    <t>CSI104_SE1706</t>
+  </si>
+  <si>
+    <t>CA80</t>
+  </si>
+  <si>
+    <t>PRJ301_SE1605</t>
+  </si>
+  <si>
+    <t>CA103</t>
+  </si>
+  <si>
+    <t>OSG202_IA1703</t>
+  </si>
+  <si>
+    <t>CA104</t>
+  </si>
+  <si>
+    <t>OSG202_IA1704</t>
+  </si>
+  <si>
+    <t>ST21</t>
+  </si>
+  <si>
+    <t>CA105</t>
+  </si>
+  <si>
+    <t>OSG202_IA1705</t>
+  </si>
+  <si>
+    <t>ST22</t>
+  </si>
+  <si>
+    <t>CA40</t>
+  </si>
+  <si>
+    <t>ADY201m_AI1707</t>
+  </si>
+  <si>
+    <t>ST23</t>
+  </si>
+  <si>
+    <t>CA59</t>
+  </si>
+  <si>
+    <t>CSI104_SE1701</t>
+  </si>
+  <si>
+    <t>ST24</t>
+  </si>
+  <si>
+    <t>CA106</t>
+  </si>
+  <si>
+    <t>CSD201_IA1706</t>
+  </si>
+  <si>
+    <t>ST31</t>
+  </si>
+  <si>
+    <t>CA107</t>
+  </si>
+  <si>
+    <t>CSD201_IA1708</t>
+  </si>
+  <si>
+    <t>vHonbeoVr9N4n9hbx4AbuvzeZRc1E4</t>
+  </si>
+  <si>
+    <t>HoangNT20</t>
+  </si>
+  <si>
+    <t>SWT301_SE1607</t>
+  </si>
+  <si>
+    <t>CA23</t>
+  </si>
+  <si>
+    <t>SWT301_SE1610</t>
+  </si>
+  <si>
+    <t>CA87</t>
+  </si>
+  <si>
+    <t>PRN221_SE1503</t>
+  </si>
+  <si>
+    <t>CA93</t>
+  </si>
+  <si>
+    <t>SWT301_SE1609</t>
+  </si>
+  <si>
+    <t>CA24</t>
+  </si>
+  <si>
+    <t>SWT301_SE1612</t>
+  </si>
+  <si>
+    <t>CA86</t>
+  </si>
+  <si>
+    <t>PRN221_SE1502</t>
+  </si>
+  <si>
+    <t>CA99</t>
+  </si>
+  <si>
+    <t>PRN231_SE1504</t>
+  </si>
+  <si>
+    <t>CA100</t>
+  </si>
+  <si>
+    <t>PRN231_SE1505</t>
+  </si>
+  <si>
+    <t>CA101</t>
+  </si>
+  <si>
+    <t>PRN231_SE1506</t>
+  </si>
+  <si>
+    <t>ST33</t>
+  </si>
+  <si>
+    <t>CA102</t>
+  </si>
+  <si>
+    <t>PRU211m_SE1502</t>
+  </si>
+  <si>
+    <t>ST34</t>
+  </si>
+  <si>
+    <t>CA36</t>
+  </si>
+  <si>
+    <t>HungBT3</t>
+  </si>
+  <si>
+    <t>CSD201_SE1738</t>
+  </si>
+  <si>
+    <t>CA57</t>
+  </si>
+  <si>
+    <t>CSI104_SE1703</t>
+  </si>
+  <si>
+    <t>CA62</t>
+  </si>
+  <si>
+    <t>CSD201_SE1734</t>
+  </si>
+  <si>
+    <t>CA63</t>
+  </si>
+  <si>
+    <t>CSD201_SE1736</t>
+  </si>
+  <si>
+    <t>CA70</t>
+  </si>
+  <si>
+    <t>DBI202_AI1703</t>
+  </si>
+  <si>
+    <t>CA71</t>
+  </si>
+  <si>
+    <t>DBI202_AI1704</t>
+  </si>
+  <si>
+    <t>CA72</t>
+  </si>
+  <si>
+    <t>DBI202_IA1706</t>
+  </si>
+  <si>
+    <t>CA97</t>
+  </si>
+  <si>
+    <t>CSI104_SE1707</t>
+  </si>
+  <si>
+    <t>CA108</t>
+  </si>
+  <si>
+    <t>CEA201_SE1703</t>
+  </si>
+  <si>
+    <t>CA109</t>
+  </si>
+  <si>
+    <t>CEA201_SE1704</t>
+  </si>
+  <si>
+    <t>CA110</t>
+  </si>
+  <si>
+    <t>CEA201_SE1705</t>
+  </si>
+  <si>
+    <t>CA69</t>
+  </si>
+  <si>
+    <t>HungLD5</t>
+  </si>
+  <si>
+    <t>SWT301_SE1611</t>
+  </si>
+  <si>
+    <t>CA89</t>
+  </si>
+  <si>
+    <t>SWR302_SE1607</t>
+  </si>
+  <si>
+    <t>CA20</t>
+  </si>
+  <si>
+    <t>SWR302_SE1615</t>
+  </si>
+  <si>
+    <t>CA21</t>
+  </si>
+  <si>
+    <t>SWR302_SE1616</t>
+  </si>
+  <si>
+    <t>CA91</t>
+  </si>
+  <si>
+    <t>SWT301_SE1608</t>
+  </si>
+  <si>
+    <t>CA94</t>
+  </si>
+  <si>
+    <t>SWP391_SE1608</t>
+  </si>
+  <si>
+    <t>CA45</t>
+  </si>
+  <si>
+    <t>HCI201_SE1516</t>
+  </si>
+  <si>
+    <t>CA56</t>
+  </si>
+  <si>
+    <t>SWP391_SE1613</t>
+  </si>
+  <si>
+    <t>CA95</t>
+  </si>
+  <si>
+    <t>SWP391_SE1609</t>
+  </si>
+  <si>
+    <t>CA137</t>
+  </si>
+  <si>
+    <t>SWT301_SE1613</t>
+  </si>
+  <si>
+    <t>CA58</t>
+  </si>
+  <si>
+    <t>HuongNTC2</t>
+  </si>
+  <si>
+    <t>SWP391_SE1607</t>
+  </si>
+  <si>
+    <t>CA73</t>
+  </si>
+  <si>
+    <t>FER201m_SE1613</t>
+  </si>
+  <si>
+    <t>CA74</t>
+  </si>
+  <si>
+    <t>FER201m_SE1616</t>
+  </si>
+  <si>
+    <t>CA139</t>
+  </si>
+  <si>
+    <t>SWP391_SE1611</t>
+  </si>
+  <si>
+    <t>CA138</t>
+  </si>
+  <si>
+    <t>SWP391_SE1610</t>
+  </si>
+  <si>
+    <t>CA140</t>
+  </si>
+  <si>
+    <t>SWR302_SE1611</t>
+  </si>
+  <si>
+    <t>GUrQm7sATmoPTxSTS0GWHnDRVrf0hJ</t>
+  </si>
+  <si>
+    <t>SWR302_SE1610</t>
+  </si>
+  <si>
+    <t>PNUVeCNkd8ubW8cS1atusivthpXJ7h</t>
+  </si>
+  <si>
+    <t>SWR302_SE1614</t>
+  </si>
+  <si>
+    <t>V2qQQhc9EbPTSgJx5LCVNsLDYyUIkD</t>
+  </si>
+  <si>
+    <t>SWT301_SE1615</t>
+  </si>
+  <si>
+    <t>CA64</t>
+  </si>
+  <si>
+    <t>KhanhKT</t>
+  </si>
+  <si>
+    <t>PRX301_SE1508</t>
+  </si>
+  <si>
+    <t>CA65</t>
+  </si>
+  <si>
+    <t>PRX301_SE1509</t>
+  </si>
+  <si>
     <t>CA66</t>
   </si>
   <si>
-    <t>AnNDH2</t>
-  </si>
-  <si>
-    <t>AIP391_AI1602</t>
-  </si>
-  <si>
-    <t>ST11</t>
+    <t>PRX301_SE1517</t>
+  </si>
+  <si>
+    <t>CA82</t>
+  </si>
+  <si>
+    <t>DGT301_AI1602</t>
+  </si>
+  <si>
+    <t>CA83</t>
+  </si>
+  <si>
+    <t>DGT301_AI1603</t>
+  </si>
+  <si>
+    <t>CA68</t>
+  </si>
+  <si>
+    <t>KiemHH</t>
+  </si>
+  <si>
+    <t>CEA201_SE1702</t>
+  </si>
+  <si>
+    <t>CA90</t>
+  </si>
+  <si>
+    <t>CEA201_SE1701</t>
+  </si>
+  <si>
+    <t>CA92</t>
+  </si>
+  <si>
+    <t>PRO192_SE1709</t>
+  </si>
+  <si>
+    <t>CA22</t>
+  </si>
+  <si>
+    <t>OSG202_SE1716</t>
+  </si>
+  <si>
+    <t>CA31</t>
+  </si>
+  <si>
+    <t>OSG202_SE1710</t>
+  </si>
+  <si>
+    <t>CA32</t>
+  </si>
+  <si>
+    <t>OSG202_SE1722</t>
   </si>
   <si>
     <t>CA67</t>
   </si>
   <si>
-    <t>AIP391_AI1603</t>
-  </si>
-  <si>
-    <t>ST32</t>
-  </si>
-  <si>
-    <t>CA95</t>
-  </si>
-  <si>
-    <t>AIL302m_AI1602</t>
-  </si>
-  <si>
-    <t>ST33</t>
-  </si>
-  <si>
-    <t>CA96</t>
-  </si>
-  <si>
-    <t>AIL302m_AI1603</t>
-  </si>
-  <si>
-    <t>ST34</t>
+    <t>CEA201_IA1701</t>
+  </si>
+  <si>
+    <t>CA112</t>
+  </si>
+  <si>
+    <t>IOT102_SE1605_Half 1</t>
+  </si>
+  <si>
+    <t>CA111</t>
+  </si>
+  <si>
+    <t>IOT102_SE1603_Half 1</t>
+  </si>
+  <si>
+    <t>CA118</t>
+  </si>
+  <si>
+    <t>PRM392_SE1502</t>
+  </si>
+  <si>
+    <t>CA119</t>
+  </si>
+  <si>
+    <t>PRM392_SE1503</t>
+  </si>
+  <si>
+    <t>CA18</t>
+  </si>
+  <si>
+    <t>LoiND9</t>
+  </si>
+  <si>
+    <t>DBI202_IA1708</t>
+  </si>
+  <si>
+    <t>CA30</t>
+  </si>
+  <si>
+    <t>PFP191_AI1701</t>
+  </si>
+  <si>
+    <t>CA19</t>
+  </si>
+  <si>
+    <t>DBI202_SE1743</t>
+  </si>
+  <si>
+    <t>CA17</t>
+  </si>
+  <si>
+    <t>DBI202_AI1702</t>
+  </si>
+  <si>
+    <t>CA33</t>
+  </si>
+  <si>
+    <t>IOT102_SE1602_Half 1</t>
+  </si>
+  <si>
+    <t>CA34</t>
+  </si>
+  <si>
+    <t>IOT102_SE1606_Half 2</t>
+  </si>
+  <si>
+    <t>CA75</t>
+  </si>
+  <si>
+    <t>PRJ301_SE1601</t>
+  </si>
+  <si>
+    <t>CA76</t>
+  </si>
+  <si>
+    <t>PRJ301_SE1602</t>
+  </si>
+  <si>
+    <t>CA77</t>
+  </si>
+  <si>
+    <t>PRJ301_SE1603</t>
+  </si>
+  <si>
+    <t>CA78</t>
+  </si>
+  <si>
+    <t>PRF192_SE1705</t>
+  </si>
+  <si>
+    <t>CA79</t>
+  </si>
+  <si>
+    <t>PRF192_SE1707</t>
+  </si>
+  <si>
+    <t>CA38</t>
+  </si>
+  <si>
+    <t>NamH3</t>
+  </si>
+  <si>
+    <t>PRM391_SE1501</t>
+  </si>
+  <si>
+    <t>CA39</t>
+  </si>
+  <si>
+    <t>PRM391_SE1516</t>
+  </si>
+  <si>
+    <t>CA84</t>
+  </si>
+  <si>
+    <t>ISC301_SE1501</t>
+  </si>
+  <si>
+    <t>CA85</t>
+  </si>
+  <si>
+    <t>ISC301_SE1516</t>
+  </si>
+  <si>
+    <t>CA41</t>
+  </si>
+  <si>
+    <t>NguyenTT15</t>
+  </si>
+  <si>
+    <t>DMT301_SE1507</t>
+  </si>
+  <si>
+    <t>CA51</t>
+  </si>
+  <si>
+    <t>DBW301_SE1508</t>
+  </si>
+  <si>
+    <t>CA52</t>
+  </si>
+  <si>
+    <t>DBW301_SE1509</t>
+  </si>
+  <si>
+    <t>CA53</t>
+  </si>
+  <si>
+    <t>DBW301_SE1517</t>
+  </si>
+  <si>
+    <t>CA88</t>
+  </si>
+  <si>
+    <t>DBP391_AI1502</t>
+  </si>
+  <si>
+    <t>CA98</t>
+  </si>
+  <si>
+    <t>DBM301_AI1502</t>
+  </si>
+  <si>
+    <t>CA141</t>
+  </si>
+  <si>
+    <t>AIT301_SE1507</t>
   </si>
   <si>
     <t>CA1</t>
   </si>
   <si>
-    <t>HoaDNT</t>
-  </si>
-  <si>
-    <t>CEA201_SE1705</t>
+    <t>PhongVT12</t>
+  </si>
+  <si>
+    <t>LAB211_SE1739</t>
   </si>
   <si>
     <t>CA2</t>
   </si>
   <si>
-    <t>CEA201_SE1706</t>
-  </si>
-  <si>
-    <t>ST12</t>
+    <t>LAB211_SE1753</t>
+  </si>
+  <si>
+    <t>CA120</t>
+  </si>
+  <si>
+    <t>PRO192_SE1714</t>
+  </si>
+  <si>
+    <t>CA121</t>
+  </si>
+  <si>
+    <t>PRO192_SE1718</t>
+  </si>
+  <si>
+    <t>CA37</t>
+  </si>
+  <si>
+    <t>LAB211_SE1706</t>
+  </si>
+  <si>
+    <t>CA117</t>
+  </si>
+  <si>
+    <t>PRF192_SE1701</t>
+  </si>
+  <si>
+    <t>mKEe7vta4FcJMImcb73Rh5HK73Paue</t>
+  </si>
+  <si>
+    <t>Phuonglhk</t>
+  </si>
+  <si>
+    <t>HCI201_SE1501</t>
+  </si>
+  <si>
+    <t>CA81</t>
+  </si>
+  <si>
+    <t>PRU221m_SE1504</t>
+  </si>
+  <si>
+    <t>CA136</t>
+  </si>
+  <si>
+    <t>PRU211m_SE1503</t>
+  </si>
+  <si>
+    <t>CA43</t>
+  </si>
+  <si>
+    <t>SWD392_SE1502</t>
+  </si>
+  <si>
+    <t>CA42</t>
+  </si>
+  <si>
+    <t>SWD391_SE1516</t>
+  </si>
+  <si>
+    <t>7D5XNzEWdMI9wAQefiY6uwHaXalHwS</t>
+  </si>
+  <si>
+    <t>SWD391_SE1501</t>
+  </si>
+  <si>
+    <t>CA44</t>
+  </si>
+  <si>
+    <t>SWD392_SE1503</t>
+  </si>
+  <si>
+    <t>CA113</t>
+  </si>
+  <si>
+    <t>PRN211_SE1607</t>
+  </si>
+  <si>
+    <t>CA49</t>
+  </si>
+  <si>
+    <t>PRN211_SE1608</t>
   </si>
   <si>
     <t>CA50</t>
   </si>
   <si>
+    <t>PRN211_SE1609</t>
+  </si>
+  <si>
+    <t>CA25</t>
+  </si>
+  <si>
+    <t>Taint5</t>
+  </si>
+  <si>
+    <t>LAB211_SE1741</t>
+  </si>
+  <si>
+    <t>CA26</t>
+  </si>
+  <si>
+    <t>LAB211_SE1751</t>
+  </si>
+  <si>
+    <t>CA27</t>
+  </si>
+  <si>
+    <t>LAB211_SE1754</t>
+  </si>
+  <si>
+    <t>CA28</t>
+  </si>
+  <si>
+    <t>LAB211_SE1755</t>
+  </si>
+  <si>
+    <t>CA114</t>
+  </si>
+  <si>
+    <t>DBI202_SE1735</t>
+  </si>
+  <si>
+    <t>CA115</t>
+  </si>
+  <si>
+    <t>DBI202_SE1737</t>
+  </si>
+  <si>
+    <t>CA116</t>
+  </si>
+  <si>
+    <t>DBI202_SE1745</t>
+  </si>
+  <si>
+    <t>CA126</t>
+  </si>
+  <si>
+    <t>ThongNT</t>
+  </si>
+  <si>
+    <t>PRF192_SE1703</t>
+  </si>
+  <si>
+    <t>CA127</t>
+  </si>
+  <si>
+    <t>PRF192_SE1704</t>
+  </si>
+  <si>
+    <t>CA4</t>
+  </si>
+  <si>
+    <t>LAB211_SE1734</t>
+  </si>
+  <si>
+    <t>CA5</t>
+  </si>
+  <si>
+    <t>LAB211_SE1736</t>
+  </si>
+  <si>
+    <t>CA6</t>
+  </si>
+  <si>
+    <t>LAB211_SE1738</t>
+  </si>
+  <si>
+    <t>CA125</t>
+  </si>
+  <si>
+    <t>PRF192_SE1702</t>
+  </si>
+  <si>
+    <t>CA130</t>
+  </si>
+  <si>
+    <t>PRO192_SE1711</t>
+  </si>
+  <si>
+    <t>CA131</t>
+  </si>
+  <si>
+    <t>PRO192_SE1713</t>
+  </si>
+  <si>
+    <t>CA132</t>
+  </si>
+  <si>
+    <t>PRO192_SE1717</t>
+  </si>
+  <si>
+    <t>CA0</t>
+  </si>
+  <si>
+    <t>TruongLV11</t>
+  </si>
+  <si>
+    <t>CSI104_SE1705</t>
+  </si>
+  <si>
+    <t>CA11</t>
+  </si>
+  <si>
+    <t>CSI104_IA1701</t>
+  </si>
+  <si>
+    <t>CA12</t>
+  </si>
+  <si>
+    <t>CSI104_SE1702</t>
+  </si>
+  <si>
+    <t>CA13</t>
+  </si>
+  <si>
+    <t>ADY201m_AI1705</t>
+  </si>
+  <si>
+    <t>CA14</t>
+  </si>
+  <si>
+    <t>TuanBA16</t>
+  </si>
+  <si>
+    <t>ADY201m_AI1706</t>
+  </si>
+  <si>
+    <t>CA15</t>
+  </si>
+  <si>
     <t>ADY201m_AI1708</t>
   </si>
   <si>
-    <t>ST13</t>
+    <t>CA35</t>
+  </si>
+  <si>
+    <t>CSD301_AI1603</t>
   </si>
   <si>
     <t>CA55</t>
   </si>
   <si>
-    <t>OSG202_IA1703</t>
-  </si>
-  <si>
-    <t>ST14</t>
-  </si>
-  <si>
-    <t>CA56</t>
-  </si>
-  <si>
-    <t>OSG202_IA1704</t>
-  </si>
-  <si>
-    <t>ST21</t>
-  </si>
-  <si>
-    <t>CA57</t>
-  </si>
-  <si>
-    <t>OSG202_IA1705</t>
-  </si>
-  <si>
-    <t>ST22</t>
-  </si>
-  <si>
-    <t>CA60</t>
-  </si>
-  <si>
-    <t>IOT102_SE1605_Half 1</t>
-  </si>
-  <si>
-    <t>ST23</t>
-  </si>
-  <si>
-    <t>CA61</t>
-  </si>
-  <si>
-    <t>CEA201_IA1701</t>
-  </si>
-  <si>
-    <t>ST24</t>
-  </si>
-  <si>
-    <t>CA91</t>
+    <t>FER201m_SE1614</t>
+  </si>
+  <si>
+    <t>CA10</t>
+  </si>
+  <si>
+    <t>TuanMT2</t>
+  </si>
+  <si>
+    <t>CSD203_AI1704</t>
+  </si>
+  <si>
+    <t>CA16</t>
+  </si>
+  <si>
+    <t>CSD203_AI1703</t>
+  </si>
+  <si>
+    <t>CA29</t>
   </si>
   <si>
     <t>CSD203_AI1702</t>
   </si>
   <si>
-    <t>ST31</t>
-  </si>
-  <si>
-    <t>CA92</t>
-  </si>
-  <si>
-    <t>CSD203_AI1703</t>
-  </si>
-  <si>
-    <t>CA27</t>
-  </si>
-  <si>
-    <t>HoangNT20</t>
-  </si>
-  <si>
-    <t>PRU211m_SE1502</t>
-  </si>
-  <si>
-    <t>CA28</t>
-  </si>
-  <si>
-    <t>PRU211m_SE1503</t>
-  </si>
-  <si>
-    <t>CA47</t>
-  </si>
-  <si>
-    <t>PRN231_SE1504</t>
-  </si>
-  <si>
     <t>CA48</t>
   </si>
   <si>
-    <t>PRN231_SE1505</t>
-  </si>
-  <si>
-    <t>CA49</t>
-  </si>
-  <si>
-    <t>PRN231_SE1506</t>
-  </si>
-  <si>
-    <t>CA108</t>
-  </si>
-  <si>
-    <t>PRN211_SE1607</t>
-  </si>
-  <si>
-    <t>CA109</t>
-  </si>
-  <si>
-    <t>PRN211_SE1608</t>
-  </si>
-  <si>
-    <t>CA110</t>
-  </si>
-  <si>
-    <t>PRN211_SE1609</t>
-  </si>
-  <si>
-    <t>CA118</t>
-  </si>
-  <si>
-    <t>SWT301_SE1610</t>
-  </si>
-  <si>
-    <t>CA120</t>
-  </si>
-  <si>
-    <t>SWT301_SE1609</t>
+    <t>PRF192_IA1701</t>
+  </si>
+  <si>
+    <t>CA3</t>
+  </si>
+  <si>
+    <t>VanTTN2</t>
+  </si>
+  <si>
+    <t>LAB211_SE1708</t>
   </si>
   <si>
     <t>CA7</t>
   </si>
   <si>
-    <t>HungBT3</t>
-  </si>
-  <si>
-    <t>CSD201_SE1738</t>
-  </si>
-  <si>
-    <t>CA20</t>
-  </si>
-  <si>
-    <t>CSD201_SE1734</t>
-  </si>
-  <si>
-    <t>CA21</t>
-  </si>
-  <si>
-    <t>CSD201_SE1736</t>
-  </si>
-  <si>
-    <t>CA32</t>
-  </si>
-  <si>
-    <t>DBI202_AI1702</t>
-  </si>
-  <si>
-    <t>CA33</t>
-  </si>
-  <si>
-    <t>DBI202_AI1703</t>
-  </si>
-  <si>
-    <t>CA34</t>
-  </si>
-  <si>
-    <t>DBI202_AI1704</t>
-  </si>
-  <si>
-    <t>CA74</t>
-  </si>
-  <si>
-    <t>PFP191_AI1701</t>
-  </si>
-  <si>
-    <t>CA81</t>
-  </si>
-  <si>
-    <t>OSG202_SE1708</t>
-  </si>
-  <si>
-    <t>CA82</t>
-  </si>
-  <si>
-    <t>OSG202_SE1709</t>
-  </si>
-  <si>
-    <t>CA83</t>
-  </si>
-  <si>
-    <t>OSG202_SE1710</t>
-  </si>
-  <si>
-    <t>CA86</t>
-  </si>
-  <si>
-    <t>PRJ301_SE1606</t>
-  </si>
-  <si>
-    <t>CA14</t>
-  </si>
-  <si>
-    <t>HungLD5</t>
-  </si>
-  <si>
-    <t>HCI201_SE1501</t>
-  </si>
-  <si>
-    <t>CA15</t>
-  </si>
-  <si>
-    <t>HCI201_SE1516</t>
-  </si>
-  <si>
-    <t>CA72</t>
-  </si>
-  <si>
-    <t>SWR302_SE1611</t>
-  </si>
-  <si>
-    <t>CA94</t>
-  </si>
-  <si>
-    <t>SWR302_SE1608</t>
-  </si>
-  <si>
-    <t>CA93</t>
-  </si>
-  <si>
-    <t>SWR302_SE1607</t>
-  </si>
-  <si>
-    <t>CA103</t>
-  </si>
-  <si>
-    <t>SWT301_SE1611</t>
-  </si>
-  <si>
-    <t>CA106</t>
-  </si>
-  <si>
-    <t>SWT301_SE1608</t>
-  </si>
-  <si>
-    <t>CA119</t>
-  </si>
-  <si>
-    <t>SWP391_SE1613</t>
-  </si>
-  <si>
-    <t>H7XbI5VsbRr2m445SYYzmVqPqZAOAA</t>
-  </si>
-  <si>
-    <t>SWT301_SE1607</t>
-  </si>
-  <si>
-    <t>CA127</t>
-  </si>
-  <si>
-    <t>SWP391_SE1614</t>
-  </si>
-  <si>
-    <t>CA22</t>
-  </si>
-  <si>
-    <t>HuongNTC2</t>
-  </si>
-  <si>
-    <t>PRU221m_SE1504</t>
-  </si>
-  <si>
-    <t>CA42</t>
-  </si>
-  <si>
-    <t>PRN221_SE1502</t>
-  </si>
-  <si>
-    <t>CA43</t>
-  </si>
-  <si>
-    <t>PRN221_SE1503</t>
-  </si>
-  <si>
-    <t>CA71</t>
-  </si>
-  <si>
-    <t>SWP391_SE1607</t>
-  </si>
-  <si>
-    <t>CA73</t>
-  </si>
-  <si>
-    <t>FER201m_SE1614</t>
-  </si>
-  <si>
-    <t>CA77</t>
-  </si>
-  <si>
-    <t>FER201m_SE1613</t>
-  </si>
-  <si>
-    <t>CA78</t>
-  </si>
-  <si>
-    <t>FER201m_SE1616</t>
-  </si>
-  <si>
-    <t>CA84</t>
-  </si>
-  <si>
-    <t>SWP391_SE1608</t>
-  </si>
-  <si>
-    <t>CA85</t>
-  </si>
-  <si>
-    <t>SWP391_SE1609</t>
-  </si>
-  <si>
-    <t>CA121</t>
-  </si>
-  <si>
-    <t>KhanhKT</t>
-  </si>
-  <si>
-    <t>AIT301_SE1507</t>
-  </si>
-  <si>
-    <t>CA75</t>
-  </si>
-  <si>
-    <t>DGT301_AI1602</t>
-  </si>
-  <si>
-    <t>CA76</t>
-  </si>
-  <si>
-    <t>DGT301_AI1603</t>
-  </si>
-  <si>
-    <t>CA116</t>
-  </si>
-  <si>
-    <t>PRM392_SE1502</t>
-  </si>
-  <si>
-    <t>CA117</t>
-  </si>
-  <si>
-    <t>PRM392_SE1503</t>
-  </si>
-  <si>
-    <t>CA44</t>
-  </si>
-  <si>
-    <t>KiemHH</t>
-  </si>
-  <si>
-    <t>CSI104_SE1701</t>
-  </si>
-  <si>
-    <t>CA45</t>
-  </si>
-  <si>
-    <t>CSI104_SE1703</t>
-  </si>
-  <si>
-    <t>CA46</t>
-  </si>
-  <si>
-    <t>CSI104_SE1704</t>
-  </si>
-  <si>
-    <t>CA101</t>
-  </si>
-  <si>
-    <t>CEA201_SE1702</t>
-  </si>
-  <si>
-    <t>CA104</t>
-  </si>
-  <si>
-    <t>CEA201_SE1701</t>
-  </si>
-  <si>
-    <t>CA105</t>
-  </si>
-  <si>
-    <t>CEA201_SE1703</t>
-  </si>
-  <si>
-    <t>CA111</t>
-  </si>
-  <si>
-    <t>DBI202_IA1706</t>
-  </si>
-  <si>
-    <t>CA112</t>
-  </si>
-  <si>
-    <t>DBI202_IA1707</t>
-  </si>
-  <si>
-    <t>CA113</t>
+    <t>LAB211_SE1743</t>
+  </si>
+  <si>
+    <t>CA8</t>
+  </si>
+  <si>
+    <t>LAB211_SE1747</t>
+  </si>
+  <si>
+    <t>CA9</t>
+  </si>
+  <si>
+    <t>LAB221_SE1605</t>
+  </si>
+  <si>
+    <t>CA54</t>
+  </si>
+  <si>
+    <t>LAB231_SE1612</t>
+  </si>
+  <si>
+    <t>CA122</t>
   </si>
   <si>
     <t>DBI202_SE1732</t>
   </si>
   <si>
-    <t>CA114</t>
-  </si>
-  <si>
-    <t>CSI105_AI1701</t>
-  </si>
-  <si>
-    <t>CA115</t>
-  </si>
-  <si>
-    <t>PRF192_IA1701</t>
-  </si>
-  <si>
-    <t>CA69</t>
-  </si>
-  <si>
-    <t>LoiND9</t>
-  </si>
-  <si>
-    <t>DBI202_IA1708</t>
-  </si>
-  <si>
-    <t>CA70</t>
-  </si>
-  <si>
-    <t>DBI202_SE1743</t>
-  </si>
-  <si>
-    <t>CA18</t>
-  </si>
-  <si>
-    <t>IOT102_SE1602_Half 1</t>
-  </si>
-  <si>
-    <t>CA19</t>
-  </si>
-  <si>
-    <t>IOT102_SE1606_Half 2</t>
-  </si>
-  <si>
-    <t>CA29</t>
-  </si>
-  <si>
-    <t>ADY201m_AI1705</t>
-  </si>
-  <si>
-    <t>CA30</t>
-  </si>
-  <si>
-    <t>ADY201m_AI1706</t>
-  </si>
-  <si>
-    <t>CA31</t>
-  </si>
-  <si>
-    <t>ADY201m_AI1707</t>
-  </si>
-  <si>
-    <t>CA35</t>
-  </si>
-  <si>
-    <t>PRJ301_SE1601</t>
-  </si>
-  <si>
-    <t>CA36</t>
-  </si>
-  <si>
-    <t>PRJ301_SE1602</t>
-  </si>
-  <si>
-    <t>CA37</t>
-  </si>
-  <si>
-    <t>PRJ301_SE1603</t>
-  </si>
-  <si>
-    <t>CA38</t>
-  </si>
-  <si>
-    <t>IOT102_AI1601_Half 2</t>
-  </si>
-  <si>
-    <t>CA26</t>
-  </si>
-  <si>
-    <t>NamH3</t>
-  </si>
-  <si>
-    <t>PRM391_SE1516</t>
-  </si>
-  <si>
-    <t>CA25</t>
-  </si>
-  <si>
-    <t>PRM391_SE1501</t>
-  </si>
-  <si>
-    <t>CA80</t>
-  </si>
-  <si>
-    <t>ISC301_SE1516</t>
-  </si>
-  <si>
-    <t>CA79</t>
-  </si>
-  <si>
-    <t>ISC301_SE1501</t>
-  </si>
-  <si>
-    <t>CA107</t>
-  </si>
-  <si>
-    <t>ESS301_SE1507</t>
-  </si>
-  <si>
-    <t>CA51</t>
-  </si>
-  <si>
-    <t>NguyenTT15</t>
-  </si>
-  <si>
-    <t>DMT301_SE1507</t>
-  </si>
-  <si>
-    <t>CA87</t>
-  </si>
-  <si>
-    <t>DBP391_AI1502</t>
-  </si>
-  <si>
-    <t>CA88</t>
-  </si>
-  <si>
-    <t>PRX301_SE1508</t>
-  </si>
-  <si>
-    <t>CA89</t>
-  </si>
-  <si>
-    <t>PRX301_SE1509</t>
-  </si>
-  <si>
-    <t>CA90</t>
-  </si>
-  <si>
-    <t>PRX301_SE1517</t>
-  </si>
-  <si>
-    <t>CA97</t>
-  </si>
-  <si>
-    <t>DBW301_SE1508</t>
-  </si>
-  <si>
-    <t>CA98</t>
-  </si>
-  <si>
-    <t>DBW301_SE1509</t>
-  </si>
-  <si>
-    <t>CA99</t>
-  </si>
-  <si>
-    <t>DBW301_SE1517</t>
-  </si>
-  <si>
-    <t>CA102</t>
-  </si>
-  <si>
-    <t>DBM301_AI1502</t>
-  </si>
-  <si>
-    <t>PhongVT12</t>
-  </si>
-  <si>
-    <t>LAB211_SE1739</t>
-  </si>
-  <si>
-    <t>LAB211_SE1753</t>
-  </si>
-  <si>
-    <t>CA24</t>
-  </si>
-  <si>
-    <t>LAB211_SE1706</t>
-  </si>
-  <si>
-    <t>CA132</t>
-  </si>
-  <si>
-    <t>PRF192_SE1701</t>
+    <t>CA123</t>
+  </si>
+  <si>
+    <t>DBI202_SE1736</t>
+  </si>
+  <si>
+    <t>CA124</t>
+  </si>
+  <si>
+    <t>DBI202_SE1738</t>
+  </si>
+  <si>
+    <t>CA128</t>
+  </si>
+  <si>
+    <t>PRO192_SE1708</t>
+  </si>
+  <si>
+    <t>CA129</t>
+  </si>
+  <si>
+    <t>PRO192_SE1710</t>
   </si>
   <si>
     <t>CA133</t>
   </si>
   <si>
-    <t>PRF192_SE1705</t>
-  </si>
-  <si>
-    <t>CA134</t>
-  </si>
-  <si>
-    <t>PRF192_SE1707</t>
-  </si>
-  <si>
-    <t>CA135</t>
-  </si>
-  <si>
-    <t>PRN211_SE1611</t>
-  </si>
-  <si>
-    <t>CA136</t>
-  </si>
-  <si>
-    <t>PRO192_SE1714</t>
-  </si>
-  <si>
-    <t>CA137</t>
-  </si>
-  <si>
-    <t>PRO192_SE1718</t>
-  </si>
-  <si>
-    <t>CA54</t>
-  </si>
-  <si>
-    <t>Phuonglhk</t>
-  </si>
-  <si>
-    <t>SWD392_SE1503</t>
-  </si>
-  <si>
-    <t>CA122</t>
-  </si>
-  <si>
-    <t>SWT301_SE1612</t>
-  </si>
-  <si>
-    <t>CA58</t>
-  </si>
-  <si>
-    <t>SWD391_SE1501</t>
-  </si>
-  <si>
-    <t>CA59</t>
-  </si>
-  <si>
-    <t>SWD391_SE1516</t>
-  </si>
-  <si>
-    <t>CA123</t>
-  </si>
-  <si>
-    <t>SWT301_SE1613</t>
-  </si>
-  <si>
-    <t>CA53</t>
-  </si>
-  <si>
-    <t>SWD392_SE1502</t>
-  </si>
-  <si>
-    <t>CA124</t>
-  </si>
-  <si>
-    <t>SWT301_SE1614</t>
-  </si>
-  <si>
-    <t>CA125</t>
-  </si>
-  <si>
-    <t>SWP391_SE1610</t>
-  </si>
-  <si>
-    <t>CA126</t>
-  </si>
-  <si>
-    <t>SWP391_SE1611</t>
-  </si>
-  <si>
-    <t>CA128</t>
-  </si>
-  <si>
-    <t>PRN211_SE1610</t>
-  </si>
-  <si>
-    <t>6xxTycFzy6yEzfUgTIw18Au6gWFpOC</t>
-  </si>
-  <si>
-    <t>SWP391_SE1615</t>
-  </si>
-  <si>
-    <t>CA3</t>
-  </si>
-  <si>
-    <t>Taint5</t>
-  </si>
-  <si>
-    <t>LAB211_SE1708</t>
-  </si>
-  <si>
-    <t>CA4</t>
-  </si>
-  <si>
-    <t>LAB211_SE1741</t>
-  </si>
-  <si>
-    <t>CA5</t>
-  </si>
-  <si>
-    <t>LAB211_SE1743</t>
-  </si>
-  <si>
-    <t>CA6</t>
-  </si>
-  <si>
-    <t>LAB211_SE1751</t>
-  </si>
-  <si>
-    <t>CA129</t>
-  </si>
-  <si>
-    <t>DBI202_SE1735</t>
-  </si>
-  <si>
-    <t>CA130</t>
-  </si>
-  <si>
-    <t>DBI202_SE1737</t>
-  </si>
-  <si>
-    <t>CA131</t>
-  </si>
-  <si>
-    <t>DBI202_SE1745</t>
-  </si>
-  <si>
-    <t>CA8</t>
-  </si>
-  <si>
-    <t>ThongNT</t>
-  </si>
-  <si>
-    <t>LAB211_SE1734</t>
-  </si>
-  <si>
-    <t>CA9</t>
-  </si>
-  <si>
-    <t>LAB211_SE1736</t>
-  </si>
-  <si>
-    <t>CA10</t>
-  </si>
-  <si>
-    <t>LAB211_SE1738</t>
-  </si>
-  <si>
-    <t>CA142</t>
-  </si>
-  <si>
-    <t>PRF192_SE1703</t>
-  </si>
-  <si>
-    <t>CA141</t>
-  </si>
-  <si>
-    <t>PRF192_SE1702</t>
-  </si>
-  <si>
-    <t>CA143</t>
-  </si>
-  <si>
-    <t>PRF192_SE1704</t>
-  </si>
-  <si>
-    <t>CA146</t>
-  </si>
-  <si>
-    <t>PRO192_SE1711</t>
-  </si>
-  <si>
-    <t>CA147</t>
-  </si>
-  <si>
-    <t>PRO192_SE1713</t>
-  </si>
-  <si>
-    <t>CA148</t>
-  </si>
-  <si>
-    <t>PRO192_SE1717</t>
-  </si>
-  <si>
-    <t>CA16</t>
-  </si>
-  <si>
-    <t>TruongLV11</t>
-  </si>
-  <si>
-    <t>CSI104_IA1701</t>
-  </si>
-  <si>
-    <t>CA0</t>
-  </si>
-  <si>
-    <t>CSI104_SE1705</t>
-  </si>
-  <si>
-    <t>CA17</t>
-  </si>
-  <si>
-    <t>CSI104_SE1702</t>
-  </si>
-  <si>
-    <t>CA23</t>
-  </si>
-  <si>
-    <t>CSD301_AI1602</t>
-  </si>
-  <si>
-    <t>CA62</t>
-  </si>
-  <si>
-    <t>TuanBA16</t>
-  </si>
-  <si>
-    <t>CSI104_SE1706</t>
-  </si>
-  <si>
-    <t>CA63</t>
-  </si>
-  <si>
-    <t>CSI104_SE1707</t>
-  </si>
-  <si>
-    <t>CA64</t>
-  </si>
-  <si>
-    <t>PRJ301_SE1604</t>
-  </si>
-  <si>
-    <t>CA65</t>
-  </si>
-  <si>
-    <t>PRJ301_SE1605</t>
-  </si>
-  <si>
-    <t>CA39</t>
-  </si>
-  <si>
-    <t>TuanMT2</t>
-  </si>
-  <si>
-    <t>IOT102_SE1601_Half 1</t>
-  </si>
-  <si>
-    <t>CA40</t>
-  </si>
-  <si>
-    <t>IOT102_SE1603_Half 1</t>
-  </si>
-  <si>
-    <t>CA41</t>
-  </si>
-  <si>
-    <t>IOT102_SE1604_Half 2</t>
-  </si>
-  <si>
-    <t>CA68</t>
-  </si>
-  <si>
-    <t>CSD203_AI1704</t>
-  </si>
-  <si>
-    <t>CA11</t>
-  </si>
-  <si>
-    <t>VanTTN2</t>
-  </si>
-  <si>
-    <t>LAB211_SE1747</t>
-  </si>
-  <si>
-    <t>CA12</t>
-  </si>
-  <si>
-    <t>LAB211_SE1755</t>
-  </si>
-  <si>
-    <t>CA13</t>
-  </si>
-  <si>
-    <t>LAB221_SE1605</t>
-  </si>
-  <si>
-    <t>CA52</t>
-  </si>
-  <si>
-    <t>LAB211_SE1707</t>
-  </si>
-  <si>
-    <t>CA100</t>
-  </si>
-  <si>
-    <t>LAB231_SE1612</t>
-  </si>
-  <si>
-    <t>CA138</t>
-  </si>
-  <si>
-    <t>DBI202_SE1736</t>
-  </si>
-  <si>
-    <t>CA139</t>
-  </si>
-  <si>
-    <t>DBI202_SE1738</t>
-  </si>
-  <si>
-    <t>CA140</t>
-  </si>
-  <si>
-    <t>DBI202_SE1740</t>
-  </si>
-  <si>
-    <t>CA144</t>
-  </si>
-  <si>
-    <t>PRO192_SE1708</t>
-  </si>
-  <si>
-    <t>CA149</t>
-  </si>
-  <si>
     <t>PRO192_SE1720</t>
-  </si>
-  <si>
-    <t>CA145</t>
-  </si>
-  <si>
-    <t>PRO192_SE1710</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1161,13 +1131,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1175,13 +1145,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1189,279 +1159,279 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1469,13 +1439,13 @@
         <v>72</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1483,13 +1453,13 @@
         <v>74</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1497,13 +1467,13 @@
         <v>76</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1511,13 +1481,13 @@
         <v>78</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1525,13 +1495,13 @@
         <v>80</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -1539,13 +1509,13 @@
         <v>82</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>83</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -1553,13 +1523,13 @@
         <v>84</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -1567,13 +1537,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -1581,13 +1551,13 @@
         <v>88</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>89</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1595,27 +1565,27 @@
         <v>90</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="D37" s="0" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1623,13 +1593,13 @@
         <v>95</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1637,13 +1607,13 @@
         <v>97</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1651,13 +1621,13 @@
         <v>99</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1665,13 +1635,13 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -1679,13 +1649,13 @@
         <v>103</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>104</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -1693,13 +1663,13 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>106</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -1707,13 +1677,13 @@
         <v>107</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -1721,13 +1691,13 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>110</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -1735,27 +1705,27 @@
         <v>111</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="D47" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1763,13 +1733,13 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1777,13 +1747,13 @@
         <v>118</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1791,13 +1761,13 @@
         <v>120</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>121</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -1805,13 +1775,13 @@
         <v>122</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>123</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -1819,13 +1789,13 @@
         <v>124</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>125</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -1833,13 +1803,13 @@
         <v>126</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>127</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
@@ -1847,7 +1817,7 @@
         <v>128</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>129</v>
@@ -1861,27 +1831,27 @@
         <v>130</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="D56" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>134</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1889,13 +1859,13 @@
         <v>135</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1903,13 +1873,13 @@
         <v>137</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1917,13 +1887,13 @@
         <v>139</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>140</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1931,27 +1901,27 @@
         <v>141</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="D61" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>145</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1959,13 +1929,13 @@
         <v>146</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>147</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1973,13 +1943,13 @@
         <v>148</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>149</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -1987,7 +1957,7 @@
         <v>150</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>151</v>
@@ -2001,7 +1971,7 @@
         <v>152</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>153</v>
@@ -2015,7 +1985,7 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>155</v>
@@ -2029,7 +1999,7 @@
         <v>156</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>157</v>
@@ -2043,7 +2013,7 @@
         <v>158</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>159</v>
@@ -2057,13 +2027,13 @@
         <v>160</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>161</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -2071,13 +2041,13 @@
         <v>162</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>163</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -2085,27 +2055,27 @@
         <v>164</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="D72" s="0" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>165</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -2113,13 +2083,13 @@
         <v>169</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2127,13 +2097,13 @@
         <v>171</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>172</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -2141,13 +2111,13 @@
         <v>173</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>174</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2155,13 +2125,13 @@
         <v>175</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>176</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -2169,13 +2139,13 @@
         <v>177</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>178</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -2183,13 +2153,13 @@
         <v>179</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>180</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80">
@@ -2197,13 +2167,13 @@
         <v>181</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>182</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -2211,13 +2181,13 @@
         <v>183</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>184</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
@@ -2225,13 +2195,13 @@
         <v>185</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2239,27 +2209,27 @@
         <v>187</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="D83" s="0" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>191</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -2267,13 +2237,13 @@
         <v>192</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>193</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -2281,13 +2251,13 @@
         <v>194</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>195</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
@@ -2295,13 +2265,13 @@
         <v>196</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>197</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -2329,7 +2299,7 @@
         <v>202</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2343,7 +2313,7 @@
         <v>204</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -2357,7 +2327,7 @@
         <v>206</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -2407,853 +2377,769 @@
         <v>213</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>292</v>
-      </c>
       <c r="C133" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="C137" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="C141" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
